--- a/biology/Botanique/Cystocloniaceae/Cystocloniaceae.xlsx
+++ b/biology/Botanique/Cystocloniaceae/Cystocloniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cystocloniaceae sont une famille d’algues rouges de l’ordre des Gigartinales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (3 février 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (3 février 2019) :
 genre Acanthococcus J.D.Hooker &amp; Harvey
 genre Austroclonium Min-Thein &amp; Womersley
 genre Bifida Stackhouse
@@ -534,7 +548,7 @@
 genre Sarcophylla Stackhouse
 genre Stictophyllum Kützing
 genre Stictosporum J.Agardh
-Selon Catalogue of Life                                   (3 février 2019)[2] :
+Selon Catalogue of Life                                   (3 février 2019) :
 genre Acanthococcus
 genre Austroclonium
 genre Calliblepharis
@@ -548,12 +562,12 @@
 genre Peltasta
 genre Rhodophyllis
 genre Stictosporum
-Selon ITIS      (3 février 2019)[3] :
+Selon ITIS      (3 février 2019) :
 genre Calliblepharis Kützing
 genre Cystoclonium Kützing
 genre Hypnea J.V.Lamouroux
 genre Rhodophyllis Kützing
-Selon NCBI  (3 février 2019)[4] :
+Selon NCBI  (3 février 2019) :
 genre Austroclonium
 genre Calliblepharis Ktzing, 1843
 genre Craspedocarpus
@@ -564,7 +578,7 @@
 genre Hypneocolax Boergesen, 1920
 genre Rhodophyllis
 genre Stictosporum
-Selon World Register of Marine Species                               (3 février 2019)[5] :
+Selon World Register of Marine Species                               (3 février 2019) :
 genre Acanthococcus J.D.Hooker &amp; Harvey, 1845
 genre Austroclonium Min-Thein &amp; Womersley, 1976
 genre Calliblepharis Kützing, 1843
